--- a/img/timeline.xlsx
+++ b/img/timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Dropbox\Apps\Overleaf\grant-nsf-small-2018-probabilistic-gg\img\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\matth\grant-nsf-small-2018-probabilistic-gg\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41AFDA4-9B43-4097-A764-5438C76B04F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E23F60F4-3234-4B6D-936F-76DD3BD63458}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A0A71190-2B27-4D55-90C0-D1587A9BD83A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Master's</t>
   </si>
@@ -153,12 +153,21 @@
   <si>
     <t xml:space="preserve"> ggplot2</t>
   </si>
+  <si>
+    <t xml:space="preserve"> pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> first version complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> refinement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +195,12 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -380,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -478,9 +493,18 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -497,6 +521,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,6 +545,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,10 +870,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,7 +1009,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="28"/>
       <c r="K6" s="6"/>
@@ -985,103 +1020,124 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="43"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="45"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="12"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="49"/>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="3"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="32767" scale="92" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="32767" scale="84" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>